--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1787288.490652774</v>
+        <v>1785036.410941566</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>151.7611701629549</v>
       </c>
       <c r="E2" t="n">
-        <v>23.34416082770904</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>86.0414190854971</v>
       </c>
       <c r="V4" t="n">
-        <v>7.885759353426328</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>399.9571464892281</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>163.9628781690733</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>17.25588147840217</v>
       </c>
       <c r="S7" t="n">
-        <v>173.6268892744755</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>93.5267620887728</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>279.1147832035481</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396202</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,19 +1345,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>115.941871238413</v>
+        <v>21.88617166825904</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.96788793061573</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,10 +1534,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>38.37250637580689</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890389</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D16" t="n">
-        <v>99.01360035611364</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>4.524736141320318e-12</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1907,10 +1907,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>55.30088041042054</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>3.475606507921868</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>31.26260713376574</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.11937003877873</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5115415340498</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>124.0908577194977</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>30.87238256911979</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688092805</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>13.03790159951507</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>179.986897510568</v>
       </c>
     </row>
     <row r="35">
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>246.2840235835277</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>24.27150084978872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3673,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892458</v>
+        <v>242.9192109362925</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>81.26578411089018</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>124.4121185570315</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>169.9685329265976</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1685.375546116517</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1316.413029176106</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D2" t="n">
-        <v>958.1473305693551</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,13 +4352,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180639</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2489.924953962485</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034578</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622242</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366698</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>3235.775364366698</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>2946.672497492342</v>
+        <v>1337.101066913588</v>
       </c>
       <c r="V4" t="n">
-        <v>2938.707084004032</v>
+        <v>1082.416578707701</v>
       </c>
       <c r="W4" t="n">
-        <v>2938.707084004032</v>
+        <v>792.9994086707405</v>
       </c>
       <c r="X4" t="n">
-        <v>2710.717533106015</v>
+        <v>565.0098577727232</v>
       </c>
       <c r="Y4" t="n">
-        <v>2489.924953962485</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1175.300932605788</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1175.300932605788</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>817.0352339990379</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>817.0352339990379</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>810.0897332498345</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,10 +4562,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4580,37 +4580,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3049.696084278616</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2718.633196935045</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>2718.633196935045</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.167438673965</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>1561.90077266991</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1909.864364776975</v>
       </c>
       <c r="S7" t="n">
-        <v>1751.913851851648</v>
+        <v>1718.178480603802</v>
       </c>
       <c r="T7" t="n">
-        <v>1530.147236421175</v>
+        <v>1496.411865173328</v>
       </c>
       <c r="U7" t="n">
-        <v>1241.044369546818</v>
+        <v>1207.308998298972</v>
       </c>
       <c r="V7" t="n">
-        <v>986.3598813409312</v>
+        <v>952.6245100930846</v>
       </c>
       <c r="W7" t="n">
-        <v>696.9427113039706</v>
+        <v>663.2073400561239</v>
       </c>
       <c r="X7" t="n">
-        <v>468.9531604059532</v>
+        <v>435.2177891581066</v>
       </c>
       <c r="Y7" t="n">
-        <v>248.1605812624231</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.200456328341</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C8" t="n">
-        <v>1053.23793938793</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>694.9722407811794</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>694.9722407811794</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F8" t="n">
-        <v>688.0267400319759</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520485</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267228</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923657</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653543</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392463</v>
+        <v>1698.509627919557</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.800296392463</v>
+        <v>1308.370295943745</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>676.468527222536</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
         <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.6347488791188</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764911</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760399</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581904</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088491</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846019</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672845</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1134.908724368015</v>
       </c>
       <c r="V10" t="n">
-        <v>1513.842048484845</v>
+        <v>880.2242361621282</v>
       </c>
       <c r="W10" t="n">
-        <v>1396.729047233923</v>
+        <v>858.1169920527757</v>
       </c>
       <c r="X10" t="n">
-        <v>1396.729047233923</v>
+        <v>858.1169920527757</v>
       </c>
       <c r="Y10" t="n">
-        <v>1175.936468090393</v>
+        <v>858.1169920527757</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5121,25 +5121,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>590.9096564684977</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.28814409505</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6673633290469</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>699.73118040114</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2408.20297612995</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2225.348141784855</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2005.746676807796</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1716.671450151994</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1461.986961946107</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806532</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630022</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557751</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991043</v>
+        <v>695.5020655703096</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>526.5658826424027</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>526.5658826424027</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>378.6527890600096</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>231.7628415620992</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>231.7628415620992</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5677,16 +5677,16 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797729</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.76484885336</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>2040.996070613739</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>641.8461362382112</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>472.9099533103043</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>322.7933138979686</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6218,40 +6218,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L27" t="n">
-        <v>429.5088224239596</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703091</v>
       </c>
       <c r="C28" t="n">
-        <v>746.1673476194629</v>
+        <v>526.5658826424022</v>
       </c>
       <c r="D28" t="n">
-        <v>596.0507082071272</v>
+        <v>376.4492432300665</v>
       </c>
       <c r="E28" t="n">
-        <v>448.1376146247341</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>301.2476671268237</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038324</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797724</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570815</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111712</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N30" t="n">
-        <v>1804.131916132773</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478291</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038296</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797697</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6680,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2074.122646505557</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.7592298206043</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6865,43 +6865,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>971.4076946508441</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>954.2476448606586</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831763</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625876</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588916</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.896109690898</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y40" t="n">
-        <v>1135.896109690898</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>867.8220324314351</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1465.200520057987</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>2092.798483612594</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C43" t="n">
-        <v>696.7084350851671</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D43" t="n">
-        <v>546.5917956728314</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E43" t="n">
-        <v>546.5917956728314</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F43" t="n">
-        <v>399.701848174921</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2445.740023695907</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>620.8230468926974</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.8640922513216</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>28.0027403343148</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D16" t="n">
-        <v>49.60187266209871</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>84.99383243580334</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.7088678813222</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>84.99383243580198</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>186.1428431935225</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>126.7126101431586</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6.922421112519402</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>41.43328057277111</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,13 +24889,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>221.2652607547082</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>191.8807364711667</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>273.1465727897291</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>40.2389747530633</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9753202488391</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,10 +25600,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>43.26526345295164</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>84.25835418137866</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>15.8825942891924</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>55.74112246243951</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>881101.3618970277</v>
+        <v>881101.3618970276</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>881101.3618970276</v>
+        <v>881101.3618970275</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>881101.3618970276</v>
+        <v>881101.3618970275</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>881101.3618970277</v>
+        <v>881101.3618970276</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583916</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583913</v>
-      </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="G2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907535</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="G2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>544823.9547907537</v>
       </c>
-      <c r="J2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="C4" t="n">
         <v>93403.78684820639</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820648</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685504</v>
       </c>
       <c r="F4" t="n">
         <v>14216.75207685505</v>
@@ -26433,7 +26433,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26473,7 +26473,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-975879.2784788006</v>
+        <v>-975879.2784788009</v>
       </c>
       <c r="C6" t="n">
-        <v>352865.4672487918</v>
+        <v>352865.4672487919</v>
       </c>
       <c r="D6" t="n">
-        <v>352865.4672487917</v>
+        <v>352865.4672487921</v>
       </c>
       <c r="E6" t="n">
-        <v>104072.2110826363</v>
+        <v>104037.4731572005</v>
       </c>
       <c r="F6" t="n">
-        <v>429484.672889992</v>
+        <v>429449.9349645561</v>
       </c>
       <c r="G6" t="n">
-        <v>429484.6728899918</v>
+        <v>429449.934964556</v>
       </c>
       <c r="H6" t="n">
-        <v>429484.672889992</v>
+        <v>429449.934964556</v>
       </c>
       <c r="I6" t="n">
-        <v>429484.6728899915</v>
+        <v>429449.934964556</v>
       </c>
       <c r="J6" t="n">
-        <v>211953.470492714</v>
+        <v>211918.732567279</v>
       </c>
       <c r="K6" t="n">
-        <v>429484.672889992</v>
+        <v>429449.9349645562</v>
       </c>
       <c r="L6" t="n">
-        <v>429484.672889992</v>
+        <v>429449.9349645557</v>
       </c>
       <c r="M6" t="n">
-        <v>344429.6449544802</v>
+        <v>344394.907029044</v>
       </c>
       <c r="N6" t="n">
-        <v>429484.6728899916</v>
+        <v>429449.9349645562</v>
       </c>
       <c r="O6" t="n">
-        <v>429484.6728899917</v>
+        <v>429449.9349645558</v>
       </c>
       <c r="P6" t="n">
-        <v>429484.6728899918</v>
+        <v>429449.9349645559</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022921</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>202.9218714577281</v>
       </c>
       <c r="E2" t="n">
-        <v>358.5862092445527</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>200.1704191201158</v>
       </c>
       <c r="V4" t="n">
-        <v>244.2518839704017</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10.96457916422537</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>87.03229378982866</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>71.67627119164516</v>
       </c>
       <c r="S7" t="n">
-        <v>16.14213605696639</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>289.2070795747078</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>131.8069424499053</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>170.581127098178</v>
+        <v>264.636826668332</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28627,10 +28627,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30232,10 +30232,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30435,7 +30435,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>-2.711780146180205e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837942</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,46 +31671,46 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780294</v>
@@ -31841,28 +31841,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>288.8958573929172</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,22 +32072,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,28 +32309,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>391.605194951448</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,13 +32792,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>366.8427442359106</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33026,13 +33026,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>395.1848490935921</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,22 +33260,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>235.5705495535876</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>345.1232217852619</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33746,7 +33746,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>251.886104915025</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>463.4318227833011</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,28 +34208,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>430.1367711736326</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>752.2150000824579</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>248.3870916262918</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597746</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004609</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>157.5541453095838</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36045,7 +36045,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191299</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36057,7 +36057,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066234</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>253.0508151715738</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>253.0508151715738</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409633</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191314</v>
@@ -36908,22 +36908,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>92.97430510914316</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294864</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>211.1488143709317</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37233,7 +37233,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010434</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>120.5443928316917</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>320.8355783388566</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>291.5823913937584</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>620.8732879991246</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>108.4053175402703</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
